--- a/csv/SourceData_Fig1-3.xlsx
+++ b/csv/SourceData_Fig1-3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/summer/Data/vegetation/code_data/csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/summer/Data/vegetation/code_data/github/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F6345D-2B5B-E84B-839D-C26B84C4B28D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84618C0D-1740-1F4A-A55E-72009A19A401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="1320" windowWidth="29400" windowHeight="19120" activeTab="7" xr2:uid="{3F583EA8-CD7A-7D4C-8B08-88E6C0855D63}"/>
+    <workbookView xWindow="-1440" yWindow="-22040" windowWidth="29400" windowHeight="17180" activeTab="8" xr2:uid="{3F583EA8-CD7A-7D4C-8B08-88E6C0855D63}"/>
   </bookViews>
   <sheets>
     <sheet name="CQTP" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="WBI" sheetId="6" r:id="rId6"/>
     <sheet name="WQTP" sheetId="7" r:id="rId7"/>
     <sheet name="YP" sheetId="8" r:id="rId8"/>
+    <sheet name="Climate-data" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4613" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4635" uniqueCount="74">
   <si>
     <t>id</t>
   </si>
@@ -208,6 +209,63 @@
   </si>
   <si>
     <t>id_2T</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>GPP_mean</t>
+  </si>
+  <si>
+    <t>GPP_stdev</t>
+  </si>
+  <si>
+    <t>P_mean</t>
+  </si>
+  <si>
+    <t>P_stdev</t>
+  </si>
+  <si>
+    <t>T_mean</t>
+  </si>
+  <si>
+    <t>T_stdev</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> g C/m_/year</t>
+  </si>
+  <si>
+    <t>g C/m_/year</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>CQTP</t>
+  </si>
+  <si>
+    <t>EBI</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>WBI</t>
+  </si>
+  <si>
+    <t>WQTP</t>
+  </si>
+  <si>
+    <t>YP</t>
+  </si>
+  <si>
+    <t>℃</t>
   </si>
 </sst>
 </file>
@@ -23421,7 +23479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C159AEEC-CCFA-AD4A-9658-B756D2052B34}">
   <dimension ref="A1:F174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
@@ -26910,4 +26968,273 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580D12BF-021E-D549-BBC1-C92F95FF4095}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>112.964693</v>
+      </c>
+      <c r="D3">
+        <v>20.688014500000001</v>
+      </c>
+      <c r="E3">
+        <v>579.33484599999997</v>
+      </c>
+      <c r="F3">
+        <v>14.574866999999999</v>
+      </c>
+      <c r="G3">
+        <v>-5.8</v>
+      </c>
+      <c r="H3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4">
+        <v>79.438596489999995</v>
+      </c>
+      <c r="D4">
+        <v>21.185191700000001</v>
+      </c>
+      <c r="E4">
+        <v>233.20722499999999</v>
+      </c>
+      <c r="F4">
+        <v>3.775277</v>
+      </c>
+      <c r="G4">
+        <v>-12.723357</v>
+      </c>
+      <c r="H4">
+        <v>9.3863000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5">
+        <v>463.97592589999999</v>
+      </c>
+      <c r="D5">
+        <v>92.44847523</v>
+      </c>
+      <c r="E5">
+        <v>299.36209000000002</v>
+      </c>
+      <c r="F5">
+        <v>1.154935</v>
+      </c>
+      <c r="G5">
+        <v>-7.5249879999999996</v>
+      </c>
+      <c r="H5">
+        <v>2.7269999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>459.14611109999998</v>
+      </c>
+      <c r="D6">
+        <v>17.379169659999999</v>
+      </c>
+      <c r="E6">
+        <v>551.893869</v>
+      </c>
+      <c r="F6">
+        <v>5.5472289999999997</v>
+      </c>
+      <c r="G6">
+        <v>-7.2885200000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.204155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>372.68527779999999</v>
+      </c>
+      <c r="D7">
+        <v>17.480552029999998</v>
+      </c>
+      <c r="E7">
+        <v>560.768373</v>
+      </c>
+      <c r="F7">
+        <v>3.2976390000000002</v>
+      </c>
+      <c r="G7">
+        <v>-9.3111560000000004</v>
+      </c>
+      <c r="H7">
+        <v>3.3409000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8">
+        <v>191.0252778</v>
+      </c>
+      <c r="D8">
+        <v>22.38586415</v>
+      </c>
+      <c r="E8">
+        <v>227.692958</v>
+      </c>
+      <c r="F8">
+        <v>0.44</v>
+      </c>
+      <c r="G8">
+        <v>-11.970395</v>
+      </c>
+      <c r="H8">
+        <v>9.6679999999999995E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>339.41448200000002</v>
+      </c>
+      <c r="F9">
+        <v>1.75919</v>
+      </c>
+      <c r="G9">
+        <v>-10.86172</v>
+      </c>
+      <c r="H9">
+        <v>3.8192999999999998E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10">
+        <v>276.68880209999998</v>
+      </c>
+      <c r="D10">
+        <v>17.467637499999999</v>
+      </c>
+      <c r="E10">
+        <v>440.42719099999999</v>
+      </c>
+      <c r="F10">
+        <v>0.55216900000000002</v>
+      </c>
+      <c r="G10">
+        <v>-6.7947410000000001</v>
+      </c>
+      <c r="H10">
+        <v>8.8660000000000006E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/csv/SourceData_Fig1-3.xlsx
+++ b/csv/SourceData_Fig1-3.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/summer/Data/vegetation/code_data/github/csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84618C0D-1740-1F4A-A55E-72009A19A401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E521BFC1-CAFE-7F4C-81A7-56808EE763EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1440" yWindow="-22040" windowWidth="29400" windowHeight="17180" activeTab="8" xr2:uid="{3F583EA8-CD7A-7D4C-8B08-88E6C0855D63}"/>
+    <workbookView xWindow="25800" yWindow="500" windowWidth="25380" windowHeight="19840" activeTab="8" xr2:uid="{3F583EA8-CD7A-7D4C-8B08-88E6C0855D63}"/>
   </bookViews>
   <sheets>
-    <sheet name="CQTP" sheetId="1" r:id="rId1"/>
-    <sheet name="EBI" sheetId="2" r:id="rId2"/>
-    <sheet name="MD" sheetId="3" r:id="rId3"/>
-    <sheet name="NT" sheetId="4" r:id="rId4"/>
-    <sheet name="TL" sheetId="5" r:id="rId5"/>
-    <sheet name="WBI" sheetId="6" r:id="rId6"/>
-    <sheet name="WQTP" sheetId="7" r:id="rId7"/>
-    <sheet name="YP" sheetId="8" r:id="rId8"/>
-    <sheet name="Climate-data" sheetId="9" r:id="rId9"/>
+    <sheet name="Fig1-3-CQTP" sheetId="1" r:id="rId1"/>
+    <sheet name="Fig1-3-EBI" sheetId="2" r:id="rId2"/>
+    <sheet name="Fig1-3-MD" sheetId="3" r:id="rId3"/>
+    <sheet name="Fig1-3-NT" sheetId="4" r:id="rId4"/>
+    <sheet name="Fig1-3-TL" sheetId="5" r:id="rId5"/>
+    <sheet name="Fig1-3-WBI" sheetId="6" r:id="rId6"/>
+    <sheet name="Fig1-3-WQTP" sheetId="7" r:id="rId7"/>
+    <sheet name="Fig1-3-YP" sheetId="8" r:id="rId8"/>
+    <sheet name="Fig3-Climate-data" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AAE094-3AD6-684B-8E0F-468A1BD266F0}">
   <dimension ref="A1:F226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23480,7 +23480,7 @@
   <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26974,8 +26974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{580D12BF-021E-D549-BBC1-C92F95FF4095}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
